--- a/biology/Médecine/Composite_dentaire/Composite_dentaire.xlsx
+++ b/biology/Médecine/Composite_dentaire/Composite_dentaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En dentisterie, un composite (ou résine composite) est un matériau utilisé pour obturer et reconstituer les dents. Son avantage principal étant de pouvoir imiter la couleur blanchâtre d'une dent. Ce matériau est plus récent que l'amalgame.
 Au départ, il était surtout utilisé pour des raisons esthétiques sur les dents antérieures. Mais des progrès importants permettent désormais une utilisation beaucoup plus large, complémentaire avec l'amalgame. Il est constitué de charges minérales noyées dans une matrice organique.
@@ -512,7 +524,9 @@
           <t>Avantages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ne relargue pas de mercure, contrairement à l’amalgame.
 Esthétique.
@@ -544,7 +558,9 @@
           <t>Inconvénients</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Nécessite l'utilisation de la digue dentaire (le matériau ne tolère pas la contamination) et normalement d'un mordançage préalable
 Nécessite une meilleure hygiène de la part du patient.
